--- a/line_33.xlsx
+++ b/line_33.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/rubi_rana_sintef_no/Documents/collab_codes/Codes/Load Flow With Excel Input/ieee_33_bus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakul\Documents\GitHub\power_grid_DSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCF0E75C-EFCC-49D5-8BB3-9E91778373BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894DC18-34C8-4E89-9F29-CE44EB2914C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="770" windowWidth="14400" windowHeight="7400" xr2:uid="{BBECA8A2-B132-4A6F-91E1-DFBF9256E65D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBECA8A2-B132-4A6F-91E1-DFBF9256E65D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>0.0922</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>1.355</t>
+  </si>
+  <si>
+    <t>From Bus</t>
+  </si>
+  <si>
+    <t>To Bus</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -260,10 +272,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,463 +617,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0BCED7-AE84-4922-90EF-6F6DF4842F75}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="1">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="1">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="1">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="1">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="1">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="1">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="1">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="1">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="1">
         <v>23</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="1">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="1">
         <v>25</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="1">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="1">
         <v>27</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="1">
         <v>28</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="1">
         <v>29</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="1">
         <v>30</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="1">
         <v>31</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="1">
         <v>32</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="1">
         <v>33</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>57</v>
       </c>
     </row>
